--- a/biology/Zoologie/Culicoidea/Culicoidea.xlsx
+++ b/biology/Zoologie/Culicoidea/Culicoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Culicoidea sont une super-famille d'insectes diptères nématocères de l'infra-ordre des Culicomorpha.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Culicoidea, datée de 1818, est attribuée à l'entomologiste allemand Johann Wilhelm Meigen (1764-1845)[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Culicoidea, datée de 1818, est attribuée à l'entomologiste allemand Johann Wilhelm Meigen (1764-1845).  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste familles et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (21 février 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 février 2022) :
 famille des Chaoboridae Edwards, 1912
 famille des Culicidae Stephens, 1829
 famille des Dixidae Schiner, 1868
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Johann Wilhelm Meigen, Systematische Beschreibung der bekannten europäischen zweiflügeligen Insekten, vol. 1, Allemagne, Beaufort Sohn, 1818, 332 p. (lire en ligne).</t>
         </is>
